--- a/Exam/exam_topics.xlsx
+++ b/Exam/exam_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbjorelind/Documents/732A96 (TDDE15)/Git/TDDE15/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC36EB3-90A1-5E48-A4A1-F6D22984D32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD3460-BB81-8147-A8C7-C91038BFE45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B2D31B5C-4DE7-0448-9EEA-DE3F3EDFE00F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Exam</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>2.1 Log likelihood, optimala param.</t>
+  </si>
+  <si>
+    <t>Naive Bayes, exact inference</t>
+  </si>
+  <si>
+    <t>Forward, Backward</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915FC53E-2B36-6749-8383-79D5ADE720CD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,6 +497,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exam/exam_topics.xlsx
+++ b/Exam/exam_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbjorelind/Documents/732A96 (TDDE15)/Git/TDDE15/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD3460-BB81-8147-A8C7-C91038BFE45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A51314-1EDF-F842-9DAA-D43690721820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B2D31B5C-4DE7-0448-9EEA-DE3F3EDFE00F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Exam</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Forward, Backward</t>
+  </si>
+  <si>
+    <t>Matern kernel, hyperparameters, post. Distr.</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915FC53E-2B36-6749-8383-79D5ADE720CD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +528,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exam/exam_topics.xlsx
+++ b/Exam/exam_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbjorelind/Documents/732A96 (TDDE15)/Git/TDDE15/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A51314-1EDF-F842-9DAA-D43690721820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831E852-001F-1F4E-82C7-65746D5C9421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B2D31B5C-4DE7-0448-9EEA-DE3F3EDFE00F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Exam</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Matern kernel, hyperparameters, post. Distr.</t>
+  </si>
+  <si>
+    <t>Essential DAG, Markov equivalent</t>
+  </si>
+  <si>
+    <t>"Normal robot", sequence to maximize likelihood</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915FC53E-2B36-6749-8383-79D5ADE720CD}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,6 +548,45 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exam/exam_topics.xlsx
+++ b/Exam/exam_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidbjorelind/Documents/732A96 (TDDE15)/Git/TDDE15/Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831E852-001F-1F4E-82C7-65746D5C9421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D31708-7A1A-1C42-959D-3B69A915FC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{B2D31B5C-4DE7-0448-9EEA-DE3F3EDFE00F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Exam</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>"Normal robot", sequence to maximize likelihood</t>
+  </si>
+  <si>
+    <t>SigmaF och ell, intervall, noisy data, kernel discussion, bayesian approach</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,6 +589,9 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
